--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4B8AD-C83A-45FC-B02D-AE8589718D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B503E3F-DA39-4392-A7AC-25DE2D9904BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TestCase" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCase!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCase!$A$4:$H$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -87,13 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -111,28 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アカウント登録」ボタン押下後にアカウント登録画面に遷移する</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「名前（姓）」「名前（名）」はひらがな、漢字のみ入力可</t>
     <rPh sb="1" eb="3">
       <t>ナマエ</t>
@@ -165,9 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能</t>
-  </si>
-  <si>
     <t>「郵便番号」は半角数字のみ入力可</t>
   </si>
   <si>
@@ -175,34 +143,452 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未入力または未選択の項目が1件でもあれば、該当項目の下にエラーメッセージを赤字で表示する。</t>
-  </si>
-  <si>
-    <t>パスワードは、ハッシュ化してDB登録しておく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーが0件ならば、アカウント登録確認画面に遷移する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録画面の入力値をDBに新規登録する</t>
+    <t>アカウント登録確認画面でアカウント登録画面の入力値をテキスト表示</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="10" eb="13">
-      <t>ニュウリョクチ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードは●で表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移後に「登録完了しました」を画面中央に大きくテキスト表示</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）、名前（名）、カナ（姓）、カナ（名）、パスワード、住所（市区町村）は最大入力文字数10文字、初期値は空欄に設定</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス、住所（番地）は最大入力文字数100文字、初期値は空欄に設定</t>
+    <rPh sb="8" eb="10">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別は男、女の２種類で、初期値は「男」に設定</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号は、最大入力文字数７文字、初期値は空欄</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限は、プルダウン（一般、管理者の２種類）で、初期値は「一般」を選択済に設定</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）は、プルダウン（空欄、北海道～沖縄の４７都道府県の並び順）で、初期値は空欄を選択済に設定</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「男」に設定されている</t>
+    <rPh sb="1" eb="2">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「10文字以下にしてください」の注意分の表示、「空欄」が設定されている</t>
+    <rPh sb="3" eb="7">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「100文字以下にしてください」の注意分の表示、「空欄」が設定されている</t>
+    <rPh sb="25" eb="27">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「7文字以下にしてください」の注意分の表示、「空欄」が設定されている</t>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンでの表示、「空欄」が設定されている</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンでの表示、「一般」に設定されている</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、漢字が入力可</t>
+    <rPh sb="5" eb="7">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナが入力可</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字が入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）が入力可</t>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字が入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）が入力可</t>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当項目にエラーメッセージを赤字で表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力または未選択の項目が1件でもあれば、該当項目の下にエラーメッセージを赤字で表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DB登録時にエラーが発生する場合は、画面に「エラーが発生したためアカウント登録できません。」とエラーメッセージを赤字で表示する</t>
-  </si>
-  <si>
-    <t>「前に戻る」ボタン押下時に、アカウント登録画面の各項目に入力値（アカウント登録確認画面で表示した入力値）をセットする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません」と表示</t>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「●●●●●」で表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されたテキストの表示</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録完了しました」と表示</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「要求された形式に一致させてください」と表示</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ内容で登録しようとすると、データベース接続エラーと表示される</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央に設置できていない。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異なる入力形式を入力したときの表示</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -274,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -297,6 +683,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -312,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,8 +854,53 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -393,10 +946,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6626226</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220413</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -412,7 +965,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="9121775" cy="444500"/>
+          <a:ext cx="9123320" cy="443521"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="9372601" cy="476250"/>
         </a:xfrm>
@@ -857,10 +1410,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>工藤</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -970,7 +1526,7 @@
                 <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>更新者</a:t>
+              <a:t>環境</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1079,6 +1635,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Windows</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1443,35 +2006,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="75.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="126.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="71.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="65" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E1" s="23"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="24"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1481,1253 +2048,1491 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45784</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="B17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5" t="s">
+      <c r="B19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="15"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="15"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="12"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="11"/>
+      <c r="D27" s="17"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="11"/>
+      <c r="D28" s="17"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="20">
+        <v>45786</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="11"/>
+      <c r="D30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="11"/>
+      <c r="D31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="16"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="11"/>
+      <c r="D34" s="17"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="11"/>
+      <c r="D35" s="17"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="11"/>
+      <c r="D36" s="17"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="11"/>
+      <c r="D37" s="17"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="11"/>
+      <c r="D38" s="17"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="11"/>
+      <c r="D39" s="17"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="11"/>
+      <c r="D40" s="17"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="11"/>
+      <c r="D41" s="17"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="11"/>
+      <c r="D42" s="17"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D43" s="18"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="16"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="11"/>
+      <c r="D45" s="17"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C46" s="11"/>
+      <c r="D46" s="17"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C47" s="11"/>
+      <c r="D47" s="17"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="18"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="15"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D50" s="15"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D51" s="15"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D52" s="15"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D53" s="15"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D54" s="15"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D55" s="15"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D56" s="15"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D57" s="15"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D58" s="15"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D59" s="15"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D60" s="15"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D61" s="15"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D62" s="15"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D63" s="15"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="15"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D65" s="15"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D67" s="15"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D68" s="15"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D69" s="15"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D70" s="15"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D71" s="15"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D72" s="15"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D73" s="15"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D74" s="15"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D75" s="15"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D76" s="15"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D77" s="15"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D78" s="15"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D79" s="15"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D80" s="15"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D81" s="15"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D82" s="15"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D83" s="15"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D84" s="15"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D85" s="15"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D86" s="15"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D87" s="15"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D88" s="15"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D89" s="15"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D90" s="15"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D91" s="15"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D92" s="15"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D93" s="15"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D94" s="15"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D95" s="15"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D96" s="15"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D97" s="15"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D98" s="15"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D99" s="15"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D100" s="15"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D101" s="15"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D102" s="15"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D103" s="15"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="8"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
+  <autoFilter ref="A4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
+  <mergeCells count="1">
+    <mergeCell ref="E1:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B503E3F-DA39-4392-A7AC-25DE2D9904BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E55C33-15B4-4309-A14E-52B2C277301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,10 +1188,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アカウント登録</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1242,10 +1245,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アカウント登録</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1467,6 +1473,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>2025/05/09</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -2008,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E55C33-15B4-4309-A14E-52B2C277301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B7846-D786-481D-B908-3EDD9BECCF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,6 +890,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -898,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2022,7 +2022,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
@@ -2039,17 +2039,17 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="E1" s="23"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -2564,7 +2564,7 @@
         <v>49</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="22" t="s">
